--- a/Excels/data/2005.xlsx
+++ b/Excels/data/2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2D3BC6-6405-461E-8BC2-0E6F7068E577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01018288-4BA7-425F-9230-CE6354ABB0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{79CE6058-58CF-4B1E-AC17-9A039C113391}"/>
+    <workbookView xWindow="22200" yWindow="5310" windowWidth="16200" windowHeight="9360" activeTab="2" xr2:uid="{79CE6058-58CF-4B1E-AC17-9A039C113391}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="DatosExternos_3" localSheetId="1" hidden="1">'Clasificacion Pilotos'!$A$1:$V$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="206">
   <si>
     <t>Round</t>
   </si>
@@ -359,10 +358,6 @@
     <t>16</t>
   </si>
   <si>
-    <t>D'Antin MotoGP – Pramac_x000D_
- Team d'Antin Pramac</t>
-  </si>
-  <si>
     <t>Desmosedici GP4</t>
   </si>
   <si>
@@ -732,28 +727,7 @@
     <t>rider</t>
   </si>
   <si>
-    <t>Ducati Marlboro Team
-Ducati Team</t>
-  </si>
-  <si>
-    <t>Ducati Marlboro Team_x000D_
-Ducati Team</t>
-  </si>
-  <si>
-    <t>Camel Honda
-Honda Pons</t>
-  </si>
-  <si>
-    <t>Camel Honda_x000D_
-Honda Pons</t>
-  </si>
-  <si>
-    <t>Team Suzuki MotoGP_x000D_
-Red Bull Suzuki</t>
-  </si>
-  <si>
-    <t>Gauloises Yamaha Team_x000D_
-Yamaha Factory Racing</t>
+    <t>D'Antin MotoGP</t>
   </si>
 </sst>
 </file>
@@ -827,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -837,6 +811,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,26 +1015,26 @@
   <autoFilter ref="A1:V35" xr:uid="{C056B1CA-8C39-424F-B4A3-4DA7605FEFA3}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{966D8A87-349F-43B9-B648-8DF409C6B46D}" uniqueName="1" name="Pos" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{54ADCB82-FAA3-4AD7-A5C7-FCBF316EA179}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{2B62A3DD-8715-4028-A917-7BB768FE4E73}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{93C4B773-B594-41B6-A3C1-001111218AB8}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{775FA1E2-3DBB-45D4-AE6C-861053828D75}" uniqueName="5" name="ESP" queryTableFieldId="5" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{7C903DAF-FD28-42BE-934B-A8B4FFECC728}" uniqueName="6" name="POR" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{E212C103-39E5-4EC3-A257-1D2B1FE49BAE}" uniqueName="7" name="CHN" queryTableFieldId="7" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{8BB1555B-BA46-4C59-9C1B-3D506450B584}" uniqueName="8" name="FRA" queryTableFieldId="8" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{393FEF91-B6EB-4145-BF0F-B0B5773E25F0}" uniqueName="9" name="ITA" queryTableFieldId="9" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{93766B26-A688-4E22-883C-780CA766C902}" uniqueName="10" name="CAT" queryTableFieldId="10" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{5CC88131-5E49-4E46-961E-93A2FE9C892E}" uniqueName="11" name="NED" queryTableFieldId="11" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{50922A5B-4C98-459D-B99A-8C4AEA24016C}" uniqueName="12" name="USA" queryTableFieldId="12" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{A7D18172-1EDC-4534-B667-8514BC3F2673}" uniqueName="13" name="GBR" queryTableFieldId="13" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{9B1A6892-C08B-489D-863C-9124E8472ECE}" uniqueName="14" name="GER" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{77B7AC26-9180-4D74-9A16-30EFEA98755E}" uniqueName="15" name="CZE" queryTableFieldId="15" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{4C454AA2-205C-496E-9159-D8E92085AB81}" uniqueName="16" name="JPN" queryTableFieldId="16" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{1043DAE2-4938-48D9-BE13-A03DA8C41297}" uniqueName="17" name="MAL" queryTableFieldId="17" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{06FD743A-EE65-46EB-B043-E80C3D7CDE14}" uniqueName="18" name="QAT" queryTableFieldId="18" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{EBD5FDFB-1D88-4111-AE07-5DE338799FFA}" uniqueName="19" name="AUS" queryTableFieldId="19" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{65BE766B-3DA8-416A-AAFE-8FE4F00D0516}" uniqueName="20" name="TUR" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{FE20D2AE-0385-457E-AD29-B9852B143FE2}" uniqueName="21" name="VAL" queryTableFieldId="21" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{54ADCB82-FAA3-4AD7-A5C7-FCBF316EA179}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{2B62A3DD-8715-4028-A917-7BB768FE4E73}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{93C4B773-B594-41B6-A3C1-001111218AB8}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{775FA1E2-3DBB-45D4-AE6C-861053828D75}" uniqueName="5" name="ESP" queryTableFieldId="5" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{7C903DAF-FD28-42BE-934B-A8B4FFECC728}" uniqueName="6" name="POR" queryTableFieldId="6" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{E212C103-39E5-4EC3-A257-1D2B1FE49BAE}" uniqueName="7" name="CHN" queryTableFieldId="7" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{8BB1555B-BA46-4C59-9C1B-3D506450B584}" uniqueName="8" name="FRA" queryTableFieldId="8" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{393FEF91-B6EB-4145-BF0F-B0B5773E25F0}" uniqueName="9" name="ITA" queryTableFieldId="9" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{93766B26-A688-4E22-883C-780CA766C902}" uniqueName="10" name="CAT" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{5CC88131-5E49-4E46-961E-93A2FE9C892E}" uniqueName="11" name="NED" queryTableFieldId="11" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{50922A5B-4C98-459D-B99A-8C4AEA24016C}" uniqueName="12" name="USA" queryTableFieldId="12" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{A7D18172-1EDC-4534-B667-8514BC3F2673}" uniqueName="13" name="GBR" queryTableFieldId="13" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{9B1A6892-C08B-489D-863C-9124E8472ECE}" uniqueName="14" name="GER" queryTableFieldId="14" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{77B7AC26-9180-4D74-9A16-30EFEA98755E}" uniqueName="15" name="CZE" queryTableFieldId="15" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{4C454AA2-205C-496E-9159-D8E92085AB81}" uniqueName="16" name="JPN" queryTableFieldId="16" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{1043DAE2-4938-48D9-BE13-A03DA8C41297}" uniqueName="17" name="MAL" queryTableFieldId="17" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{06FD743A-EE65-46EB-B043-E80C3D7CDE14}" uniqueName="18" name="QAT" queryTableFieldId="18" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{EBD5FDFB-1D88-4111-AE07-5DE338799FFA}" uniqueName="19" name="AUS" queryTableFieldId="19" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{65BE766B-3DA8-416A-AAFE-8FE4F00D0516}" uniqueName="20" name="TUR" queryTableFieldId="20" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{FE20D2AE-0385-457E-AD29-B9852B143FE2}" uniqueName="21" name="VAL" queryTableFieldId="21" dataDxfId="7"/>
     <tableColumn id="22" xr3:uid="{18423164-920F-47F9-8778-DE020CDE84FA}" uniqueName="22" name="Pts" queryTableFieldId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1068,13 +1045,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E943C01B-117D-4792-A6A3-742BEB0931C1}" name="Table_2" displayName="Table_2" ref="A1:G38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G38" xr:uid="{E943C01B-117D-4792-A6A3-742BEB0931C1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F2394505-A104-4DAE-85BD-F1807F2B6276}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{B7B25910-359A-4813-AADC-397BC7F57B0A}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{98462256-4798-42B3-B0A1-615FEB12B1B7}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{77976466-B7BC-4668-9970-B3567BD53F9E}" uniqueName="4" name="Tyres" queryTableFieldId="4" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{489286B9-47F9-4719-9613-40A0F68FF8BB}" uniqueName="5" name="No." queryTableFieldId="5" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{BABB4FEC-2024-4A3D-90D7-C27C65755E3C}" uniqueName="6" name="Rider" queryTableFieldId="6" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{FF0D1CEE-22F2-4650-94AC-DAA8192F0A9E}" uniqueName="7" name="Rounds" queryTableFieldId="7" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{F2394505-A104-4DAE-85BD-F1807F2B6276}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{B7B25910-359A-4813-AADC-397BC7F57B0A}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{98462256-4798-42B3-B0A1-615FEB12B1B7}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{77976466-B7BC-4668-9970-B3567BD53F9E}" uniqueName="4" name="Tyres" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{489286B9-47F9-4719-9613-40A0F68FF8BB}" uniqueName="5" name="No." queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{BABB4FEC-2024-4A3D-90D7-C27C65755E3C}" uniqueName="6" name="Rider" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{FF0D1CEE-22F2-4650-94AC-DAA8192F0A9E}" uniqueName="7" name="Rounds" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1655,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EAFFA2-428F-46E8-984C-CD9E47CCE4CE}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1684,70 +1661,70 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
       <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>172</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>173</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>174</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>175</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>176</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>177</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>178</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>179</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>180</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>181</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>182</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>183</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>184</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>185</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>186</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>187</v>
-      </c>
-      <c r="V1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -1755,64 +1732,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
         <v>189</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>190</v>
       </c>
-      <c r="F2" t="s">
-        <v>191</v>
-      </c>
       <c r="G2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O2" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" t="s">
         <v>190</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
+        <v>189</v>
+      </c>
+      <c r="S2" t="s">
+        <v>189</v>
+      </c>
+      <c r="T2" t="s">
         <v>190</v>
       </c>
-      <c r="I2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K2" t="s">
-        <v>190</v>
-      </c>
-      <c r="L2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" t="s">
-        <v>190</v>
-      </c>
-      <c r="N2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O2" t="s">
-        <v>190</v>
-      </c>
-      <c r="P2" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>191</v>
-      </c>
-      <c r="R2" t="s">
-        <v>190</v>
-      </c>
-      <c r="S2" t="s">
-        <v>190</v>
-      </c>
-      <c r="T2" t="s">
-        <v>191</v>
-      </c>
       <c r="U2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V2">
         <v>367</v>
@@ -1823,64 +1800,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
         <v>98</v>
       </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>99</v>
-      </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N3" t="s">
         <v>74</v>
       </c>
       <c r="O3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V3">
         <v>220</v>
@@ -1891,64 +1868,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
         <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P4" t="s">
         <v>74</v>
       </c>
       <c r="Q4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V4">
         <v>206</v>
@@ -1959,64 +1936,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
         <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O5" t="s">
         <v>74</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T5" t="s">
         <v>74</v>
       </c>
       <c r="U5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V5">
         <v>179</v>
@@ -2027,64 +2004,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V6">
         <v>173</v>
@@ -2101,52 +2078,52 @@
         <v>71</v>
       </c>
       <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
         <v>194</v>
       </c>
-      <c r="E7" t="s">
-        <v>195</v>
-      </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
         <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U7" t="s">
         <v>74</v>
@@ -2160,64 +2137,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V8">
         <v>150</v>
@@ -2228,64 +2205,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I9" t="s">
         <v>74</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
         <v>74</v>
       </c>
       <c r="L9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q9" t="s">
         <v>192</v>
       </c>
-      <c r="M9" t="s">
-        <v>90</v>
-      </c>
-      <c r="N9" t="s">
-        <v>157</v>
-      </c>
-      <c r="O9" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>193</v>
-      </c>
       <c r="R9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V9">
         <v>147</v>
@@ -2302,58 +2279,58 @@
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10" t="s">
+        <v>156</v>
+      </c>
+      <c r="N10" t="s">
+        <v>191</v>
+      </c>
+      <c r="O10" t="s">
         <v>192</v>
       </c>
-      <c r="H10" t="s">
-        <v>192</v>
-      </c>
-      <c r="I10" t="s">
-        <v>157</v>
-      </c>
-      <c r="J10" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" t="s">
-        <v>151</v>
-      </c>
-      <c r="L10" t="s">
-        <v>192</v>
-      </c>
-      <c r="M10" t="s">
-        <v>157</v>
-      </c>
-      <c r="N10" t="s">
-        <v>192</v>
-      </c>
-      <c r="O10" t="s">
-        <v>193</v>
-      </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V10">
         <v>138</v>
@@ -2364,52 +2341,52 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" t="s">
         <v>192</v>
       </c>
-      <c r="H11" t="s">
-        <v>193</v>
-      </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R11" t="s">
         <v>74</v>
@@ -2418,10 +2395,10 @@
         <v>74</v>
       </c>
       <c r="T11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V11">
         <v>98</v>
@@ -2432,28 +2409,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" t="s">
+        <v>192</v>
+      </c>
+      <c r="J12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" t="s">
         <v>198</v>
-      </c>
-      <c r="I12" t="s">
-        <v>193</v>
-      </c>
-      <c r="J12" t="s">
-        <v>192</v>
-      </c>
-      <c r="K12" t="s">
-        <v>199</v>
       </c>
       <c r="L12" t="s">
         <v>74</v>
@@ -2462,28 +2439,28 @@
         <v>74</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R12" t="s">
+        <v>191</v>
+      </c>
+      <c r="S12" t="s">
         <v>192</v>
       </c>
-      <c r="S12" t="s">
-        <v>193</v>
-      </c>
       <c r="T12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V12">
         <v>91</v>
@@ -2494,55 +2471,55 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V13">
         <v>74</v>
@@ -2553,58 +2530,58 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s">
         <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q14" t="s">
         <v>74</v>
       </c>
       <c r="R14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V14">
         <v>63</v>
@@ -2615,19 +2592,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G15" t="s">
         <v>74</v>
@@ -2636,43 +2613,43 @@
         <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
+        <v>191</v>
+      </c>
+      <c r="K15" t="s">
+        <v>194</v>
+      </c>
+      <c r="L15" t="s">
         <v>192</v>
       </c>
-      <c r="K15" t="s">
-        <v>195</v>
-      </c>
-      <c r="L15" t="s">
-        <v>193</v>
-      </c>
       <c r="M15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V15">
         <v>63</v>
@@ -2683,46 +2660,46 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" t="s">
         <v>192</v>
       </c>
-      <c r="H16" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" t="s">
-        <v>195</v>
-      </c>
-      <c r="J16" t="s">
-        <v>193</v>
-      </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V16">
         <v>54</v>
@@ -2733,64 +2710,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V17">
         <v>52</v>
@@ -2801,31 +2778,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V18">
         <v>28</v>
@@ -2836,64 +2813,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
         <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T19" t="s">
         <v>81</v>
       </c>
       <c r="U19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V19">
         <v>25</v>
@@ -2904,43 +2881,43 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" t="s">
         <v>192</v>
       </c>
-      <c r="L20" t="s">
-        <v>101</v>
-      </c>
-      <c r="M20" t="s">
-        <v>193</v>
-      </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V20">
         <v>24</v>
@@ -2951,19 +2928,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" t="s">
         <v>114</v>
       </c>
-      <c r="G21" t="s">
-        <v>115</v>
-      </c>
       <c r="H21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V21">
         <v>12</v>
@@ -2974,19 +2951,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V22">
         <v>10</v>
@@ -3006,40 +2983,40 @@
         <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q23" t="s">
         <v>81</v>
@@ -3048,10 +3025,10 @@
         <v>81</v>
       </c>
       <c r="S23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U23" t="s">
         <v>81</v>
@@ -3077,52 +3054,52 @@
         <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s">
         <v>81</v>
       </c>
       <c r="M24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P24" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>191</v>
+      </c>
+      <c r="R24" t="s">
+        <v>94</v>
+      </c>
+      <c r="S24" t="s">
         <v>198</v>
       </c>
-      <c r="Q24" t="s">
-        <v>192</v>
-      </c>
-      <c r="R24" t="s">
-        <v>95</v>
-      </c>
-      <c r="S24" t="s">
-        <v>199</v>
-      </c>
       <c r="T24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V24">
         <v>7</v>
@@ -3133,22 +3110,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" t="s">
         <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I25" t="s">
         <v>81</v>
@@ -3157,16 +3134,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V25">
         <v>6</v>
@@ -3177,19 +3154,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V26">
         <v>6</v>
@@ -3200,16 +3177,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V27">
         <v>4</v>
@@ -3220,22 +3197,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V28">
         <v>4</v>
@@ -3246,16 +3223,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V29">
         <v>1</v>
@@ -3266,16 +3243,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V30">
         <v>1</v>
@@ -3283,19 +3260,19 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O31" t="s">
         <v>81</v>
       </c>
       <c r="U31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3303,16 +3280,16 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3320,16 +3297,16 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3337,16 +3314,16 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3360,10 +3337,10 @@
         <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3381,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F47DCE-DAFE-4145-BF2B-E654B76D2F02}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,9 +3442,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -3490,7 +3467,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -3513,7 +3490,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -3536,22 +3513,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
         <v>65</v>
       </c>
       <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
         <v>84</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>68</v>
@@ -3559,22 +3536,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>87</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>88</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>89</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>68</v>
@@ -3582,22 +3559,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
         <v>86</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>88</v>
       </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
       <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
         <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>68</v>
@@ -3605,22 +3582,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
         <v>94</v>
       </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>95</v>
-      </c>
-      <c r="F10" t="s">
-        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>68</v>
@@ -3628,45 +3605,45 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>88</v>
       </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
       <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
         <v>97</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
       </c>
       <c r="G11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
       <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
         <v>99</v>
-      </c>
-      <c r="F12" t="s">
-        <v>100</v>
       </c>
       <c r="G12" t="s">
         <v>68</v>
@@ -3674,183 +3651,183 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
       <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
         <v>101</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>102</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>104</v>
       </c>
-      <c r="F14" t="s">
-        <v>105</v>
-      </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
       <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
         <v>106</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>107</v>
-      </c>
-      <c r="G15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
         <v>87</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>88</v>
       </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
       <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
         <v>109</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>110</v>
-      </c>
-      <c r="G16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
         <v>87</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>88</v>
       </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
       <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" t="s">
         <v>112</v>
       </c>
-      <c r="F17" t="s">
-        <v>113</v>
-      </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
         <v>114</v>
       </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>115</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
       </c>
       <c r="E19" t="s">
         <v>81</v>
       </c>
       <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
         <v>118</v>
-      </c>
-      <c r="G19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
         <v>120</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>122</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s">
         <v>123</v>
-      </c>
-      <c r="F20" t="s">
-        <v>124</v>
       </c>
       <c r="G20" t="s">
         <v>68</v>
@@ -3858,252 +3835,252 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
         <v>120</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>121</v>
-      </c>
-      <c r="C21" t="s">
-        <v>122</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
       </c>
       <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" t="s">
         <v>125</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>126</v>
-      </c>
-      <c r="G21" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
         <v>120</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>121</v>
-      </c>
-      <c r="C22" t="s">
-        <v>122</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
       </c>
       <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
         <v>128</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>129</v>
-      </c>
-      <c r="G22" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
         <v>120</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>121</v>
-      </c>
-      <c r="C23" t="s">
-        <v>122</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
       </c>
       <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
         <v>128</v>
       </c>
-      <c r="F23" t="s">
-        <v>129</v>
-      </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
         <v>132</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>133</v>
       </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
       <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" t="s">
         <v>89</v>
-      </c>
-      <c r="E24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
         <v>132</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>133</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
         <v>134</v>
       </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>135</v>
       </c>
-      <c r="F25" t="s">
-        <v>136</v>
-      </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
         <v>137</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>138</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
         <v>139</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
         <v>137</v>
       </c>
-      <c r="B27" t="s">
-        <v>138</v>
-      </c>
       <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
         <v>141</v>
       </c>
-      <c r="D27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>142</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>143</v>
-      </c>
-      <c r="G27" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
         <v>137</v>
       </c>
-      <c r="B28" t="s">
-        <v>138</v>
-      </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
         <v>145</v>
       </c>
-      <c r="F28" t="s">
-        <v>146</v>
-      </c>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
         <v>147</v>
-      </c>
-      <c r="C29" t="s">
-        <v>148</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" t="s">
         <v>149</v>
-      </c>
-      <c r="G29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
         <v>147</v>
-      </c>
-      <c r="C30" t="s">
-        <v>148</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
       </c>
       <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" t="s">
         <v>151</v>
       </c>
-      <c r="F30" t="s">
-        <v>152</v>
-      </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
         <v>147</v>
-      </c>
-      <c r="C31" t="s">
-        <v>148</v>
       </c>
       <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="E31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" t="s">
         <v>153</v>
-      </c>
-      <c r="F31" t="s">
-        <v>154</v>
       </c>
       <c r="G31" t="s">
         <v>68</v>
@@ -4111,45 +4088,45 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
         <v>147</v>
-      </c>
-      <c r="C32" t="s">
-        <v>148</v>
       </c>
       <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="E32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" t="s">
         <v>151</v>
       </c>
-      <c r="F32" t="s">
-        <v>152</v>
-      </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s">
         <v>155</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
         <v>156</v>
       </c>
-      <c r="D33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>157</v>
-      </c>
-      <c r="F33" t="s">
-        <v>158</v>
       </c>
       <c r="G33" t="s">
         <v>68</v>
@@ -4157,22 +4134,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
         <v>155</v>
       </c>
-      <c r="C34" t="s">
-        <v>156</v>
-      </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" t="s">
         <v>159</v>
-      </c>
-      <c r="F34" t="s">
-        <v>160</v>
       </c>
       <c r="G34" t="s">
         <v>68</v>
@@ -4180,22 +4157,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" t="s">
         <v>161</v>
-      </c>
-      <c r="B35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" t="s">
-        <v>144</v>
-      </c>
-      <c r="F35" t="s">
-        <v>162</v>
       </c>
       <c r="G35" t="s">
         <v>68</v>
@@ -4203,48 +4180,48 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
         <v>155</v>
       </c>
-      <c r="C36" t="s">
-        <v>156</v>
-      </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" t="s">
         <v>163</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>164</v>
-      </c>
-      <c r="G36" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" t="s">
         <v>155</v>
       </c>
-      <c r="C37" t="s">
-        <v>156</v>
-      </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" t="s">
         <v>166</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>167</v>
-      </c>
-      <c r="G37" t="s">
-        <v>168</v>
       </c>
       <c r="I37" s="6"/>
     </row>
@@ -4264,8 +4241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4622341-02A3-4E1B-B912-ED6810E7B9AA}">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,7 +4252,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4355,58 +4332,58 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S2" s="1">
         <v>367</v>
@@ -4414,58 +4391,58 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>74</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S3" s="2">
         <v>220</v>
@@ -4473,58 +4450,58 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S4" s="1">
         <v>206</v>
@@ -4532,58 +4509,58 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>74</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>74</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S5" s="2">
         <v>179</v>
@@ -4591,58 +4568,58 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S6" s="1">
         <v>173</v>
@@ -4653,49 +4630,49 @@
         <v>77</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
@@ -4707,58 +4684,58 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S8" s="1">
         <v>150</v>
@@ -4766,58 +4743,58 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>74</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="O9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S9" s="2">
         <v>147</v>
@@ -4828,55 +4805,55 @@
         <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="M10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S10" s="1">
         <v>138</v>
@@ -4884,46 +4861,46 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>74</v>
@@ -4932,10 +4909,10 @@
         <v>74</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S11" s="2">
         <v>98</v>
@@ -4943,24 +4920,24 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>74</v>
@@ -4969,28 +4946,28 @@
         <v>74</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="Q12" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S12" s="1">
         <v>91</v>
@@ -4998,52 +4975,52 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S13" s="2">
         <v>74</v>
@@ -5051,52 +5028,52 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>81</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -5106,13 +5083,13 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>74</v>
@@ -5121,43 +5098,43 @@
         <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="J15" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S15" s="2">
         <v>63</v>
@@ -5165,40 +5142,40 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -5212,58 +5189,58 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S17" s="2">
         <v>52</v>
@@ -5271,15 +5248,15 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -5287,19 +5264,19 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="1">
@@ -5308,58 +5285,58 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>81</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S19" s="2">
         <v>25</v>
@@ -5367,44 +5344,44 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="K20" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S20" s="1">
         <v>24</v>
@@ -5412,15 +5389,15 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -5441,7 +5418,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5458,10 +5435,10 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="1">
@@ -5473,40 +5450,40 @@
         <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>81</v>
@@ -5515,10 +5492,10 @@
         <v>81</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>81</v>
@@ -5535,52 +5512,52 @@
         <v>81</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>81</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="Q24" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S24" s="1">
         <v>7</v>
@@ -5588,17 +5565,17 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>81</v>
@@ -5607,16 +5584,16 @@
         <v>81</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -5631,7 +5608,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5646,10 +5623,10 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -5660,7 +5637,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -5679,7 +5656,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S27" s="2">
         <v>4</v>
@@ -5687,20 +5664,20 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -5718,12 +5695,12 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -5745,7 +5722,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5759,7 +5736,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -5772,7 +5749,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5793,7 +5770,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S31" s="2">
         <v>0</v>
@@ -5801,7 +5778,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5814,7 +5791,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -5828,7 +5805,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -5842,7 +5819,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -5855,7 +5832,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5874,7 +5851,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S34" s="1">
         <v>0</v>
@@ -5900,7 +5877,7 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R35" s="4"/>
       <c r="S35" s="2">

--- a/Excels/data/2005.xlsx
+++ b/Excels/data/2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01018288-4BA7-425F-9230-CE6354ABB0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0004289-0A1D-4FAF-B900-3F15751DFC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="5310" windowWidth="16200" windowHeight="9360" activeTab="2" xr2:uid="{79CE6058-58CF-4B1E-AC17-9A039C113391}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18075" windowHeight="12255" activeTab="2" xr2:uid="{79CE6058-58CF-4B1E-AC17-9A039C113391}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="208">
   <si>
     <t>Round</t>
   </si>
@@ -728,6 +728,12 @@
   </si>
   <si>
     <t>D'Antin MotoGP</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>motogp</t>
   </si>
 </sst>
 </file>
@@ -811,14 +817,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -978,8 +985,8 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" backgroundRefresh="0" connectionId="5" xr16:uid="{E5C79117-9037-4BFD-97CF-B2EA725CA753}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Team" tableColumnId="1"/>
       <queryTableField id="2" name="Constructor" tableColumnId="2"/>
       <queryTableField id="3" name="Motorcycle" tableColumnId="3"/>
@@ -987,6 +994,7 @@
       <queryTableField id="5" name="No." tableColumnId="5"/>
       <queryTableField id="6" name="Rider" tableColumnId="6"/>
       <queryTableField id="7" name="Rounds" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
   <extLst>
@@ -1002,9 +1010,9 @@
   <autoFilter ref="A1:D18" xr:uid="{126776A0-D12A-4F31-8808-DB70604E3CE6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2D86CC2B-946E-4FA4-9FA6-B1E98220CC72}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{93640F91-8160-460E-AF62-C6D36341EEA5}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{EE51D9C7-F533-412D-AAE3-A75166E727EB}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{DFB7AD10-0476-4D80-8CFF-EE82A75F0BF5}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{93640F91-8160-460E-AF62-C6D36341EEA5}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{EE51D9C7-F533-412D-AAE3-A75166E727EB}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{DFB7AD10-0476-4D80-8CFF-EE82A75F0BF5}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1015,26 +1023,26 @@
   <autoFilter ref="A1:V35" xr:uid="{C056B1CA-8C39-424F-B4A3-4DA7605FEFA3}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{966D8A87-349F-43B9-B648-8DF409C6B46D}" uniqueName="1" name="Pos" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{54ADCB82-FAA3-4AD7-A5C7-FCBF316EA179}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{2B62A3DD-8715-4028-A917-7BB768FE4E73}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{93C4B773-B594-41B6-A3C1-001111218AB8}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{775FA1E2-3DBB-45D4-AE6C-861053828D75}" uniqueName="5" name="ESP" queryTableFieldId="5" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{7C903DAF-FD28-42BE-934B-A8B4FFECC728}" uniqueName="6" name="POR" queryTableFieldId="6" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{E212C103-39E5-4EC3-A257-1D2B1FE49BAE}" uniqueName="7" name="CHN" queryTableFieldId="7" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{8BB1555B-BA46-4C59-9C1B-3D506450B584}" uniqueName="8" name="FRA" queryTableFieldId="8" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{393FEF91-B6EB-4145-BF0F-B0B5773E25F0}" uniqueName="9" name="ITA" queryTableFieldId="9" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{93766B26-A688-4E22-883C-780CA766C902}" uniqueName="10" name="CAT" queryTableFieldId="10" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{5CC88131-5E49-4E46-961E-93A2FE9C892E}" uniqueName="11" name="NED" queryTableFieldId="11" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{50922A5B-4C98-459D-B99A-8C4AEA24016C}" uniqueName="12" name="USA" queryTableFieldId="12" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{A7D18172-1EDC-4534-B667-8514BC3F2673}" uniqueName="13" name="GBR" queryTableFieldId="13" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{9B1A6892-C08B-489D-863C-9124E8472ECE}" uniqueName="14" name="GER" queryTableFieldId="14" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{77B7AC26-9180-4D74-9A16-30EFEA98755E}" uniqueName="15" name="CZE" queryTableFieldId="15" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{4C454AA2-205C-496E-9159-D8E92085AB81}" uniqueName="16" name="JPN" queryTableFieldId="16" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{1043DAE2-4938-48D9-BE13-A03DA8C41297}" uniqueName="17" name="MAL" queryTableFieldId="17" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{06FD743A-EE65-46EB-B043-E80C3D7CDE14}" uniqueName="18" name="QAT" queryTableFieldId="18" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{EBD5FDFB-1D88-4111-AE07-5DE338799FFA}" uniqueName="19" name="AUS" queryTableFieldId="19" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{65BE766B-3DA8-416A-AAFE-8FE4F00D0516}" uniqueName="20" name="TUR" queryTableFieldId="20" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{FE20D2AE-0385-457E-AD29-B9852B143FE2}" uniqueName="21" name="VAL" queryTableFieldId="21" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{54ADCB82-FAA3-4AD7-A5C7-FCBF316EA179}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{2B62A3DD-8715-4028-A917-7BB768FE4E73}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{93C4B773-B594-41B6-A3C1-001111218AB8}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{775FA1E2-3DBB-45D4-AE6C-861053828D75}" uniqueName="5" name="ESP" queryTableFieldId="5" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{7C903DAF-FD28-42BE-934B-A8B4FFECC728}" uniqueName="6" name="POR" queryTableFieldId="6" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{E212C103-39E5-4EC3-A257-1D2B1FE49BAE}" uniqueName="7" name="CHN" queryTableFieldId="7" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{8BB1555B-BA46-4C59-9C1B-3D506450B584}" uniqueName="8" name="FRA" queryTableFieldId="8" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{393FEF91-B6EB-4145-BF0F-B0B5773E25F0}" uniqueName="9" name="ITA" queryTableFieldId="9" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{93766B26-A688-4E22-883C-780CA766C902}" uniqueName="10" name="CAT" queryTableFieldId="10" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{5CC88131-5E49-4E46-961E-93A2FE9C892E}" uniqueName="11" name="NED" queryTableFieldId="11" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{50922A5B-4C98-459D-B99A-8C4AEA24016C}" uniqueName="12" name="USA" queryTableFieldId="12" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{A7D18172-1EDC-4534-B667-8514BC3F2673}" uniqueName="13" name="GBR" queryTableFieldId="13" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{9B1A6892-C08B-489D-863C-9124E8472ECE}" uniqueName="14" name="GER" queryTableFieldId="14" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{77B7AC26-9180-4D74-9A16-30EFEA98755E}" uniqueName="15" name="CZE" queryTableFieldId="15" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{4C454AA2-205C-496E-9159-D8E92085AB81}" uniqueName="16" name="JPN" queryTableFieldId="16" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{1043DAE2-4938-48D9-BE13-A03DA8C41297}" uniqueName="17" name="MAL" queryTableFieldId="17" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{06FD743A-EE65-46EB-B043-E80C3D7CDE14}" uniqueName="18" name="QAT" queryTableFieldId="18" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{EBD5FDFB-1D88-4111-AE07-5DE338799FFA}" uniqueName="19" name="AUS" queryTableFieldId="19" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{65BE766B-3DA8-416A-AAFE-8FE4F00D0516}" uniqueName="20" name="TUR" queryTableFieldId="20" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{FE20D2AE-0385-457E-AD29-B9852B143FE2}" uniqueName="21" name="VAL" queryTableFieldId="21" dataDxfId="8"/>
     <tableColumn id="22" xr3:uid="{18423164-920F-47F9-8778-DE020CDE84FA}" uniqueName="22" name="Pts" queryTableFieldId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1042,16 +1050,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E943C01B-117D-4792-A6A3-742BEB0931C1}" name="Table_2" displayName="Table_2" ref="A1:G38" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G38" xr:uid="{E943C01B-117D-4792-A6A3-742BEB0931C1}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F2394505-A104-4DAE-85BD-F1807F2B6276}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B7B25910-359A-4813-AADC-397BC7F57B0A}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{98462256-4798-42B3-B0A1-615FEB12B1B7}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{77976466-B7BC-4668-9970-B3567BD53F9E}" uniqueName="4" name="Tyres" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{489286B9-47F9-4719-9613-40A0F68FF8BB}" uniqueName="5" name="No." queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{BABB4FEC-2024-4A3D-90D7-C27C65755E3C}" uniqueName="6" name="Rider" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{FF0D1CEE-22F2-4650-94AC-DAA8192F0A9E}" uniqueName="7" name="Rounds" queryTableFieldId="7" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E943C01B-117D-4792-A6A3-742BEB0931C1}" name="Table_2" displayName="Table_2" ref="A1:H38" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H38" xr:uid="{E943C01B-117D-4792-A6A3-742BEB0931C1}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F2394505-A104-4DAE-85BD-F1807F2B6276}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B7B25910-359A-4813-AADC-397BC7F57B0A}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{98462256-4798-42B3-B0A1-615FEB12B1B7}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{77976466-B7BC-4668-9970-B3567BD53F9E}" uniqueName="4" name="Tyres" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{489286B9-47F9-4719-9613-40A0F68FF8BB}" uniqueName="5" name="No." queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{BABB4FEC-2024-4A3D-90D7-C27C65755E3C}" uniqueName="6" name="Rider" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{FF0D1CEE-22F2-4650-94AC-DAA8192F0A9E}" uniqueName="7" name="Rounds" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{29CCB9B2-5A7C-4BA6-9826-CFD3D77B589E}" uniqueName="8" name="class" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3358,8 +3367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F47DCE-DAFE-4145-BF2B-E654B76D2F02}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,7 +3382,7 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -3395,8 +3404,11 @@
       <c r="G1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -3418,8 +3430,11 @@
       <c r="G2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -3441,8 +3456,11 @@
       <c r="G3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>193</v>
       </c>
@@ -3464,8 +3482,11 @@
       <c r="G4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>193</v>
       </c>
@@ -3487,8 +3508,11 @@
       <c r="G5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>193</v>
       </c>
@@ -3510,8 +3534,11 @@
       <c r="G6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -3533,8 +3560,11 @@
       <c r="G7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -3556,8 +3586,11 @@
       <c r="G8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -3579,8 +3612,11 @@
       <c r="G9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -3602,8 +3638,11 @@
       <c r="G10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -3625,8 +3664,11 @@
       <c r="G11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>196</v>
       </c>
@@ -3648,8 +3690,11 @@
       <c r="G12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>196</v>
       </c>
@@ -3671,9 +3716,12 @@
       <c r="G13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="H13" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B14" t="s">
@@ -3694,8 +3742,11 @@
       <c r="G14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>196</v>
       </c>
@@ -3717,8 +3768,11 @@
       <c r="G15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>196</v>
       </c>
@@ -3740,8 +3794,11 @@
       <c r="G16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>196</v>
       </c>
@@ -3763,8 +3820,11 @@
       <c r="G17" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -3786,8 +3846,11 @@
       <c r="G18" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -3809,8 +3872,11 @@
       <c r="G19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -3832,8 +3898,11 @@
       <c r="G20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -3855,8 +3924,11 @@
       <c r="G21" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -3878,8 +3950,11 @@
       <c r="G22" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -3901,8 +3976,11 @@
       <c r="G23" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -3924,8 +4002,11 @@
       <c r="G24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -3947,8 +4028,11 @@
       <c r="G25" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -3970,8 +4054,11 @@
       <c r="G26" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -3993,8 +4080,11 @@
       <c r="G27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -4016,8 +4106,11 @@
       <c r="G28" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>199</v>
       </c>
@@ -4039,8 +4132,11 @@
       <c r="G29" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>199</v>
       </c>
@@ -4062,8 +4158,11 @@
       <c r="G30" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>199</v>
       </c>
@@ -4085,8 +4184,11 @@
       <c r="G31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>199</v>
       </c>
@@ -4107,6 +4209,9 @@
       </c>
       <c r="G32" t="s">
         <v>143</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4131,6 +4236,9 @@
       <c r="G33" t="s">
         <v>68</v>
       </c>
+      <c r="H33" s="7" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -4154,6 +4262,9 @@
       <c r="G34" t="s">
         <v>68</v>
       </c>
+      <c r="H34" s="7" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -4177,6 +4288,9 @@
       <c r="G35" t="s">
         <v>68</v>
       </c>
+      <c r="H35" s="7" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4200,6 +4314,9 @@
       <c r="G36" t="s">
         <v>164</v>
       </c>
+      <c r="H36" s="7" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4223,9 +4340,13 @@
       <c r="G37" t="s">
         <v>167</v>
       </c>
+      <c r="H37" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="7"/>
       <c r="I38" s="6"/>
     </row>
   </sheetData>

--- a/Excels/data/2005.xlsx
+++ b/Excels/data/2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D430E378-AC98-44A5-8445-17445BFDF221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2805F796-A928-413C-A8EA-9BDF1F27FE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="18075" windowHeight="12255" tabRatio="800" activeTab="6" xr2:uid="{79CE6058-58CF-4B1E-AC17-9A039C113391}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="800" firstSheet="2" activeTab="9" xr2:uid="{79CE6058-58CF-4B1E-AC17-9A039C113391}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5760" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5760" uniqueCount="597">
   <si>
     <t>Round</t>
   </si>
@@ -2009,6 +2009,9 @@
   </si>
   <si>
     <t>Shi Zhao Huang</t>
+  </si>
+  <si>
+    <t>Raffaele de Rosa</t>
   </si>
 </sst>
 </file>
@@ -3287,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5D77B-FB55-47C1-84B9-BD8300171204}">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4622,7 +4625,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>451</v>
+        <v>596</v>
       </c>
       <c r="B25" t="s">
         <v>591</v>
@@ -15583,7 +15586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9460D934-1E1B-4748-9AE3-453545E54F05}">
   <dimension ref="A1:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
@@ -21410,8 +21413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7E48F1-35AD-4D20-B67B-8FBB479B7098}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22612,7 +22615,7 @@
         <v>450</v>
       </c>
       <c r="F46" t="s">
-        <v>451</v>
+        <v>596</v>
       </c>
       <c r="G46" t="s">
         <v>211</v>
